--- a/data_xlsx/现货价_原油_英国布伦特Dtd.xlsx
+++ b/data_xlsx/现货价_原油_英国布伦特Dtd.xlsx
@@ -27210,8 +27210,144 @@
         <v>79.76</v>
       </c>
     </row>
+    <row r="3392">
+      <c r="A3392" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B3392" s="2" t="n">
+        <v>80.47</v>
+      </c>
+    </row>
     <row r="3393">
-      <c r="A3393" s="3" t="inlineStr">
+      <c r="A3393" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B3393" s="2" t="n">
+        <v>80.61</v>
+      </c>
+    </row>
+    <row r="3394">
+      <c r="A3394" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B3394" s="2" t="n">
+        <v>79.89</v>
+      </c>
+    </row>
+    <row r="3395">
+      <c r="A3395" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B3395" s="2" t="n">
+        <v>78.77</v>
+      </c>
+    </row>
+    <row r="3396">
+      <c r="A3396" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B3396" s="2" t="n">
+        <v>79.54</v>
+      </c>
+    </row>
+    <row r="3397">
+      <c r="A3397" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B3397" s="2" t="n">
+        <v>80.28</v>
+      </c>
+    </row>
+    <row r="3398">
+      <c r="A3398" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B3398" s="2" t="n">
+        <v>79.37</v>
+      </c>
+    </row>
+    <row r="3399">
+      <c r="A3399" s="1" t="n">
+        <v>45128.0</v>
+      </c>
+      <c r="B3399" s="2" t="n">
+        <v>80.48</v>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B3400" s="2" t="n">
+        <v>82.51</v>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B3401" s="2" t="n">
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="3402">
+      <c r="A3402" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B3402" s="2" t="n">
+        <v>84.04</v>
+      </c>
+    </row>
+    <row r="3403">
+      <c r="A3403" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B3403" s="2" t="n">
+        <v>84.04</v>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B3404" s="2" t="n">
+        <v>84.28</v>
+      </c>
+    </row>
+    <row r="3405">
+      <c r="A3405" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B3405" s="2" t="n">
+        <v>85.89</v>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B3406" s="2" t="n">
+        <v>85.54</v>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B3407" s="2" t="n">
+        <v>84.32</v>
+      </c>
+    </row>
+    <row r="3408">
+      <c r="A3408" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B3408" s="2" t="n">
+        <v>86.09</v>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
